--- a/storage/durgesh/Graseed_grains1.xlsx
+++ b/storage/durgesh/Graseed_grains1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,37 +508,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>7.32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.35</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.24</v>
+        <v>1.28</v>
       </c>
       <c r="K2" t="n">
-        <v>1.17</v>
+        <v>6.38</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
-        <v>0.57</v>
+        <v>3.12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.23</v>
+        <v>0.72</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>2.78</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0.13</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4" t="n">
-        <v>0.88</v>
+        <v>3.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.19</v>
+        <v>1.26</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.12</v>
+        <v>1.29</v>
       </c>
       <c r="K4" t="n">
-        <v>0.78</v>
+        <v>2.53</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0.13</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F5" t="n">
-        <v>0.83</v>
+        <v>4.78</v>
       </c>
       <c r="G5" t="n">
-        <v>0.27</v>
+        <v>1.05</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.29</v>
+        <v>0.66</v>
       </c>
       <c r="K5" t="n">
-        <v>0.76</v>
+        <v>4.24</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0.23</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -672,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>1.03</v>
+        <v>4.52</v>
       </c>
       <c r="G6" t="n">
-        <v>0.19</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09</v>
+        <v>1.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.86</v>
+        <v>4.14</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.17</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +713,37 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>5.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0.29</v>
+        <v>1.05</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>0.48</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34</v>
+        <v>4.69</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.28</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -754,37 +754,37 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="G8" t="n">
-        <v>0.39</v>
+        <v>0.67</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="K8" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +795,37 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="n">
-        <v>0.87</v>
+        <v>9.83</v>
       </c>
       <c r="G9" t="n">
-        <v>0.23</v>
+        <v>1.59</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.13</v>
+        <v>6.53</v>
       </c>
       <c r="K9" t="n">
-        <v>0.77</v>
+        <v>12.71</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.14</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>1.47</v>
+        <v>2.17</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F11" t="n">
-        <v>0.72</v>
+        <v>12.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.14</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>0.68</v>
+        <v>10.69</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +918,37 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="n">
-        <v>0.77</v>
+        <v>1.68</v>
       </c>
       <c r="G12" t="n">
-        <v>0.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.18</v>
+        <v>0.54</v>
       </c>
       <c r="K12" t="n">
-        <v>0.74</v>
+        <v>1.52</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +959,37 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F13" t="n">
-        <v>0.52</v>
+        <v>1.7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.19</v>
+        <v>0.82</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="K13" t="n">
-        <v>0.47</v>
+        <v>1.66</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1000,37 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>4.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>1.24</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>1.3</v>
+        <v>4.21</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0.16</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="15">
@@ -1041,37 +1041,37 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15" t="n">
-        <v>1.19</v>
+        <v>8.27</v>
       </c>
       <c r="G15" t="n">
-        <v>0.35</v>
+        <v>2.07</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="K15" t="n">
-        <v>1.16</v>
+        <v>7.99</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F16" t="n">
-        <v>0.31</v>
+        <v>3.94</v>
       </c>
       <c r="G16" t="n">
-        <v>0.21</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="K16" t="n">
-        <v>0.31</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="17">
@@ -1123,37 +1123,37 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F17" t="n">
-        <v>0.45</v>
+        <v>4.19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.14</v>
+        <v>0.99</v>
       </c>
       <c r="K17" t="n">
-        <v>0.42</v>
+        <v>4.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1164,37 +1164,37 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0.55</v>
+        <v>2.46</v>
       </c>
       <c r="G18" t="n">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="K18" t="n">
-        <v>0.52</v>
+        <v>2.66</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -1205,37 +1205,37 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F19" t="n">
-        <v>0.43</v>
+        <v>2.84</v>
       </c>
       <c r="G19" t="n">
-        <v>0.24</v>
+        <v>1.02</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.42</v>
+        <v>2.57</v>
       </c>
       <c r="L19" t="n">
         <v>0.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1246,37 +1246,37 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F20" t="n">
-        <v>0.31</v>
+        <v>7.93</v>
       </c>
       <c r="G20" t="n">
-        <v>0.17</v>
+        <v>1.61</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>0.11</v>
+        <v>0.73</v>
       </c>
       <c r="K20" t="n">
-        <v>0.32</v>
+        <v>7.09</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21">
@@ -1287,37 +1287,37 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F21" t="n">
-        <v>0.57</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.29</v>
+        <v>0.86</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="K21" t="n">
-        <v>0.55</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="22">
@@ -1328,37 +1328,37 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22" t="n">
-        <v>0.57</v>
+        <v>6.48</v>
       </c>
       <c r="G22" t="n">
-        <v>0.18</v>
+        <v>1.92</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.12</v>
+        <v>5.45</v>
       </c>
       <c r="K22" t="n">
-        <v>0.52</v>
+        <v>6.32</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="23">
@@ -1369,37 +1369,37 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.21</v>
+        <v>1.16</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.16</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.55</v>
+        <v>1.7</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="24">
@@ -1410,37 +1410,37 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24" t="n">
-        <v>0.41</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
-        <v>0.22</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.12</v>
+        <v>0.74</v>
       </c>
       <c r="K24" t="n">
-        <v>0.52</v>
+        <v>2.31</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="25">
@@ -1451,37 +1451,37 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25" t="n">
-        <v>0.44</v>
+        <v>2.97</v>
       </c>
       <c r="G25" t="n">
-        <v>0.19</v>
+        <v>1.18</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
       <c r="K25" t="n">
-        <v>0.41</v>
+        <v>2.82</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="26">
@@ -1492,37 +1492,37 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F26" t="n">
-        <v>0.72</v>
+        <v>3.14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.31</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
       <c r="K26" t="n">
-        <v>0.67</v>
+        <v>2.93</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
@@ -1533,37 +1533,37 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.36</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.21</v>
+        <v>1.31</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>0.23</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.31</v>
+        <v>2.28</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28">
@@ -1574,37 +1574,37 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.74</v>
+        <v>1.67</v>
       </c>
       <c r="G28" t="n">
-        <v>0.22</v>
+        <v>0.93</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.73</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="29">
@@ -1615,37 +1615,37 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F29" t="n">
-        <v>0.39</v>
+        <v>3.13</v>
       </c>
       <c r="G29" t="n">
-        <v>0.28</v>
+        <v>1.58</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>0.25</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>0.47</v>
+        <v>2.97</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="30">
@@ -1656,37 +1656,37 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F30" t="n">
-        <v>0.58</v>
+        <v>3.09</v>
       </c>
       <c r="G30" t="n">
-        <v>0.26</v>
+        <v>0.97</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>0.16</v>
+        <v>0.63</v>
       </c>
       <c r="K30" t="n">
-        <v>0.54</v>
+        <v>2.82</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31">
@@ -1697,37 +1697,37 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.35</v>
+        <v>1.67</v>
       </c>
       <c r="G31" t="n">
-        <v>0.17</v>
+        <v>0.85</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="K31" t="n">
-        <v>0.32</v>
+        <v>1.97</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
@@ -1738,37 +1738,37 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F32" t="n">
-        <v>0.75</v>
+        <v>3.06</v>
       </c>
       <c r="G32" t="n">
-        <v>0.27</v>
+        <v>1.14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>0.28</v>
+        <v>0.87</v>
       </c>
       <c r="K32" t="n">
-        <v>0.86</v>
+        <v>2.97</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="33">
@@ -1779,37 +1779,37 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.47</v>
+        <v>2.22</v>
       </c>
       <c r="G33" t="n">
-        <v>0.18</v>
+        <v>1.17</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>0.13</v>
+        <v>0.66</v>
       </c>
       <c r="K33" t="n">
-        <v>1.71</v>
+        <v>2.85</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M33" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="34">
@@ -1820,37 +1820,37 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5</v>
+        <v>2.38</v>
       </c>
       <c r="G34" t="n">
-        <v>0.17</v>
+        <v>1.01</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.11</v>
+        <v>0.89</v>
       </c>
       <c r="K34" t="n">
-        <v>0.44</v>
+        <v>2.22</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="35">
@@ -1861,37 +1861,37 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>1.53</v>
       </c>
       <c r="G35" t="n">
-        <v>0.22</v>
+        <v>0.79</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J35" t="n">
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4</v>
+        <v>1.44</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M35" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="36">
@@ -1902,37 +1902,37 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.27</v>
+        <v>0.87</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>0.15</v>
+        <v>0.57</v>
       </c>
       <c r="K36" t="n">
-        <v>0.89</v>
+        <v>2.32</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0.15</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="37">
@@ -1943,37 +1943,37 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F37" t="n">
-        <v>0.93</v>
+        <v>1.72</v>
       </c>
       <c r="G37" t="n">
-        <v>0.24</v>
+        <v>0.88</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.14</v>
+        <v>0.72</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8</v>
+        <v>1.66</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M37" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="38">
@@ -1984,37 +1984,37 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1</v>
+        <v>3.93</v>
       </c>
       <c r="G38" t="n">
-        <v>0.35</v>
+        <v>1.71</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>0.26</v>
+        <v>1.19</v>
       </c>
       <c r="K38" t="n">
-        <v>1.08</v>
+        <v>3.63</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="39">
@@ -2025,37 +2025,37 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F39" t="n">
-        <v>0.36</v>
+        <v>1.96</v>
       </c>
       <c r="G39" t="n">
-        <v>0.17</v>
+        <v>1.12</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="J39" t="n">
-        <v>0.17</v>
+        <v>1.25</v>
       </c>
       <c r="K39" t="n">
-        <v>0.32</v>
+        <v>1.68</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="40">
@@ -2066,37 +2066,37 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J40" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="K40" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M40" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="41">
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2116,28 +2116,28 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.63</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.27</v>
-      </c>
       <c r="K41" t="n">
-        <v>0.61</v>
+        <v>1.2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M41" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -2148,37 +2148,37 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F42" t="n">
-        <v>0.84</v>
+        <v>4.03</v>
       </c>
       <c r="G42" t="n">
-        <v>0.35</v>
+        <v>1.18</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6</v>
+        <v>1.24</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9</v>
+        <v>3.76</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="43">
@@ -2189,37 +2189,37 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
       <c r="G43" t="n">
-        <v>0.35</v>
+        <v>1.55</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J43" t="n">
-        <v>0.23</v>
+        <v>1.37</v>
       </c>
       <c r="K43" t="n">
-        <v>1.27</v>
+        <v>2.53</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M43" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="44">
@@ -2230,37 +2230,37 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F44" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="G44" t="n">
-        <v>0.39</v>
+        <v>0.71</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J44" t="n">
-        <v>0.23</v>
+        <v>0.75</v>
       </c>
       <c r="K44" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M44" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45">
@@ -2271,37 +2271,37 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45" t="n">
-        <v>0.71</v>
+        <v>2.65</v>
       </c>
       <c r="G45" t="n">
-        <v>0.22</v>
+        <v>0.87</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="K45" t="n">
-        <v>0.64</v>
+        <v>2.73</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M45" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46">
@@ -2312,37 +2312,37 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D46" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F46" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="G46" t="n">
-        <v>0.46</v>
+        <v>1.42</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="K46" t="n">
-        <v>0.87</v>
+        <v>2.96</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M46" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="47">
@@ -2353,37 +2353,37 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F47" t="n">
-        <v>0.84</v>
+        <v>1.91</v>
       </c>
       <c r="G47" t="n">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J47" t="n">
-        <v>0.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>0.79</v>
+        <v>1.74</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="48">
@@ -2394,37 +2394,37 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48" t="n">
-        <v>0.51</v>
+        <v>4.08</v>
       </c>
       <c r="G48" t="n">
-        <v>0.24</v>
+        <v>1.46</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>0.18</v>
+        <v>1.52</v>
       </c>
       <c r="K48" t="n">
-        <v>0.44</v>
+        <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="49">
@@ -2435,37 +2435,37 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F49" t="n">
-        <v>0.65</v>
+        <v>2.53</v>
       </c>
       <c r="G49" t="n">
-        <v>0.27</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>0.12</v>
+        <v>0.72</v>
       </c>
       <c r="K49" t="n">
-        <v>0.77</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M49" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="50">
@@ -2476,37 +2476,37 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F50" t="n">
-        <v>0.35</v>
+        <v>2.71</v>
       </c>
       <c r="G50" t="n">
-        <v>0.21</v>
+        <v>0.95</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>0.22</v>
+        <v>0.61</v>
       </c>
       <c r="K50" t="n">
-        <v>0.33</v>
+        <v>2.42</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0.03</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="51">
@@ -2517,37 +2517,37 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2.71</v>
       </c>
       <c r="G51" t="n">
-        <v>0.39</v>
+        <v>1.22</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J51" t="n">
-        <v>0.55</v>
+        <v>1.38</v>
       </c>
       <c r="K51" t="n">
-        <v>0.79</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -2558,37 +2558,37 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2</v>
+        <v>1.49</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>0.16</v>
+        <v>0.83</v>
       </c>
       <c r="K52" t="n">
-        <v>0.49</v>
+        <v>4.82</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M52" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="53">
@@ -2599,37 +2599,37 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7</v>
+        <v>5.06</v>
       </c>
       <c r="G53" t="n">
-        <v>0.35</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="K53" t="n">
-        <v>0.67</v>
+        <v>4.35</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0.08</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="54">
@@ -2640,37 +2640,37 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.89</v>
+        <v>6.01</v>
       </c>
       <c r="G54" t="n">
-        <v>0.29</v>
+        <v>1.92</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>0.24</v>
+        <v>1.43</v>
       </c>
       <c r="K54" t="n">
-        <v>0.88</v>
+        <v>5.89</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M54" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="55">
@@ -2681,37 +2681,37 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="G55" t="n">
-        <v>0.28</v>
+        <v>0.73</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="K55" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M55" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="56">
@@ -2722,37 +2722,37 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F56" t="n">
-        <v>0.55</v>
+        <v>1.96</v>
       </c>
       <c r="G56" t="n">
-        <v>0.18</v>
+        <v>0.91</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7</v>
+        <v>1.73</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M56" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="57">
@@ -2763,37 +2763,37 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F57" t="n">
-        <v>0.54</v>
+        <v>6.73</v>
       </c>
       <c r="G57" t="n">
-        <v>0.26</v>
+        <v>2.27</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>0.26</v>
+        <v>2.21</v>
       </c>
       <c r="K57" t="n">
-        <v>0.48</v>
+        <v>5.83</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="58">
@@ -2804,37 +2804,37 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F58" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="G58" t="n">
-        <v>0.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="J58" t="n">
-        <v>0.25</v>
+        <v>0.72</v>
       </c>
       <c r="K58" t="n">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M58" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="59">
@@ -2845,37 +2845,37 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F59" t="n">
-        <v>0.63</v>
+        <v>3.41</v>
       </c>
       <c r="G59" t="n">
-        <v>0.23</v>
+        <v>1.19</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J59" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="K59" t="n">
-        <v>0.55</v>
+        <v>3.32</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M59" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="60">
@@ -2886,37 +2886,37 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F60" t="n">
-        <v>2.08</v>
+        <v>4.59</v>
       </c>
       <c r="G60" t="n">
-        <v>0.57</v>
+        <v>1.88</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3</v>
+        <v>3.28</v>
       </c>
       <c r="K60" t="n">
-        <v>1.82</v>
+        <v>4.91</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M60" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61">
@@ -2927,37 +2927,37 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F61" t="n">
-        <v>1.17</v>
+        <v>7.74</v>
       </c>
       <c r="G61" t="n">
-        <v>0.35</v>
+        <v>1.89</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J61" t="n">
-        <v>0.18</v>
+        <v>1.25</v>
       </c>
       <c r="K61" t="n">
-        <v>1.28</v>
+        <v>6.93</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.11</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="62">
@@ -2968,37 +2968,37 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4</v>
+        <v>7.74</v>
       </c>
       <c r="G62" t="n">
-        <v>0.23</v>
+        <v>2.12</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>0.34</v>
+        <v>1.28</v>
       </c>
       <c r="K62" t="n">
-        <v>0.35</v>
+        <v>7.21</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="63">
@@ -3009,37 +3009,37 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44</v>
+        <v>3.86</v>
       </c>
       <c r="G63" t="n">
-        <v>0.27</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="K63" t="n">
-        <v>0.38</v>
+        <v>3.48</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M63" t="n">
-        <v>0.08</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="64">
@@ -3050,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01</v>
+        <v>0.27</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.88</v>
+        <v>5.92</v>
       </c>
       <c r="G64" t="n">
-        <v>0.39</v>
+        <v>2.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J64" t="n">
-        <v>0.44</v>
+        <v>3.91</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8</v>
+        <v>4.72</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.21</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="65">
@@ -3091,37 +3091,37 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F65" t="n">
-        <v>0.79</v>
+        <v>2.12</v>
       </c>
       <c r="G65" t="n">
-        <v>0.37</v>
+        <v>0.88</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J65" t="n">
-        <v>0.33</v>
+        <v>2.35</v>
       </c>
       <c r="K65" t="n">
-        <v>0.67</v>
+        <v>4.23</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="66">
@@ -3132,37 +3132,37 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66" t="n">
-        <v>0.41</v>
+        <v>4.6</v>
       </c>
       <c r="G66" t="n">
-        <v>0.26</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J66" t="n">
-        <v>0.17</v>
+        <v>1.43</v>
       </c>
       <c r="K66" t="n">
-        <v>0.44</v>
+        <v>4.31</v>
       </c>
       <c r="L66" t="n">
         <v>0.01</v>
       </c>
       <c r="M66" t="n">
-        <v>0.02</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="67">
@@ -3173,37 +3173,37 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F67" t="n">
-        <v>1.82</v>
+        <v>2.76</v>
       </c>
       <c r="G67" t="n">
-        <v>0.46</v>
+        <v>1.29</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>0.39</v>
+        <v>0.97</v>
       </c>
       <c r="K67" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M67" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="68">
@@ -3214,37 +3214,37 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F68" t="n">
-        <v>0.45</v>
+        <v>1.93</v>
       </c>
       <c r="G68" t="n">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="K68" t="n">
-        <v>0.47</v>
+        <v>1.73</v>
       </c>
       <c r="L68" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="69">
@@ -3255,37 +3255,37 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F69" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="G69" t="n">
-        <v>0.46</v>
+        <v>1.46</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="K69" t="n">
-        <v>1.67</v>
+        <v>4.19</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M69" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="70">
@@ -3296,37 +3296,1226 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F70" t="n">
-        <v>0.54</v>
+        <v>1.91</v>
       </c>
       <c r="G70" t="n">
-        <v>0.18</v>
+        <v>1.16</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="J70" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M72" t="n">
         <v>0.13</v>
       </c>
-      <c r="K70" t="n">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3</v>
+      </c>
+      <c r="K73" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K83" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M86" t="n">
         <v>0.48</v>
       </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.07000000000000001</v>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F93" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K93" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K98" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
